--- a/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-18.xlsx
+++ b/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-18.xlsx
@@ -1004,12 +1004,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>; Total bytes of</t>
+          <t>; Total bytes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>code 84</t>
+          <t>of code 84</t>
         </is>
       </c>
     </row>
